--- a/Endpoint_Error_Test_Conditions.xlsx
+++ b/Endpoint_Error_Test_Conditions.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katayama/Documents/School/Kae/complex-api/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B82DA08-3EA5-FF45-928A-7E20E3A34067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="49580" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="249">
   <si>
     <t>HTTP POST</t>
   </si>
@@ -103,6 +97,30 @@
     <t>/my/favorites/{favoriteID}</t>
   </si>
   <si>
+    <t>/my/suggested-artist</t>
+  </si>
+  <si>
+    <t>/my/suggested-artists</t>
+  </si>
+  <si>
+    <t>/my/suggested-artists-all</t>
+  </si>
+  <si>
+    <t>/my/suggested-artists/{suggestedArtistID}</t>
+  </si>
+  <si>
+    <t>/my/suggested-album</t>
+  </si>
+  <si>
+    <t>/my/suggested-albums</t>
+  </si>
+  <si>
+    <t>/my/suggested-albums-all</t>
+  </si>
+  <si>
+    <t>/my/suggested-albums/{suggestedAlbumID}</t>
+  </si>
+  <si>
     <t>/users</t>
   </si>
   <si>
@@ -124,12 +142,18 @@
     <t>/albums</t>
   </si>
   <si>
+    <t>/albums-artists</t>
+  </si>
+  <si>
     <t>/album/{albumID}/tracks</t>
   </si>
   <si>
     <t>/tracks</t>
   </si>
   <si>
+    <t>/tracks-albums-artists</t>
+  </si>
+  <si>
     <t>/track/{trackID}</t>
   </si>
   <si>
@@ -286,6 +310,36 @@
     <t>Delete a single track from favorites</t>
   </si>
   <si>
+    <t>Add an Artist to SuggestedArtists</t>
+  </si>
+  <si>
+    <t>Get array[] of user's Suggested Artists</t>
+  </si>
+  <si>
+    <t>Get array[] of user's Suggested Artists (with user and artist expanded)</t>
+  </si>
+  <si>
+    <t>Get details of a single Suggested Artist entry</t>
+  </si>
+  <si>
+    <t>Delete a single artist from a user's Suggested Artists</t>
+  </si>
+  <si>
+    <t>Add an Album to SuggestedAlbums</t>
+  </si>
+  <si>
+    <t>Get array[] of user's Suggested Albums</t>
+  </si>
+  <si>
+    <t>Get array[] of user's Suggested Albums (with user and album expanded)</t>
+  </si>
+  <si>
+    <t>Get details of a single Suggested Album entry</t>
+  </si>
+  <si>
+    <t>Delete a single album from a user's Suggested Albums</t>
+  </si>
+  <si>
     <t>Get array[] of all users</t>
   </si>
   <si>
@@ -313,9 +367,18 @@
     <t>Get array[] of all albums</t>
   </si>
   <si>
+    <t>Get array[] of all albums (with artists expanded)</t>
+  </si>
+  <si>
     <t>Get info for a single album (with tracks)</t>
   </si>
   <si>
+    <t>Get array[] of all tracks</t>
+  </si>
+  <si>
+    <t>Get array[] of all tracks (with album and artist expanded)</t>
+  </si>
+  <si>
     <t>Get details of a single track</t>
   </si>
   <si>
@@ -331,7 +394,7 @@
     <t>Rename a playlist</t>
   </si>
   <si>
-    <t>Delete a single playlist</t>
+    <t>Delete a single playlist from a user</t>
   </si>
   <si>
     <t>Add a single track to a user's playlist</t>
@@ -406,6 +469,12 @@
     <t>My-Favorites</t>
   </si>
   <si>
+    <t>My-Suggested-Artists</t>
+  </si>
+  <si>
+    <t>My-Suggested-Albums</t>
+  </si>
+  <si>
     <t>User</t>
   </si>
   <si>
@@ -481,6 +550,24 @@
     <t>if ((me.userID != favorite.userID) and (me.userRole != "Administrator")):</t>
   </si>
   <si>
+    <t>if not artist:</t>
+  </si>
+  <si>
+    <t>if not suggested_artist:</t>
+  </si>
+  <si>
+    <t>if ((me.userID != suggested_artist.userID) and (me.userRole != "Administrator")):</t>
+  </si>
+  <si>
+    <t>if not album:</t>
+  </si>
+  <si>
+    <t>if not suggested_album:</t>
+  </si>
+  <si>
+    <t>if ((me.userID != suggested_album.userID) and (me.userRole != "Administrator")):</t>
+  </si>
+  <si>
     <t>if not user:</t>
   </si>
   <si>
@@ -490,12 +577,6 @@
     <t>if ((me.userID != userID) and (me.userRole != "Administrator")):</t>
   </si>
   <si>
-    <t>if not artist:</t>
-  </si>
-  <si>
-    <t>if not album:</t>
-  </si>
-  <si>
     <t>if (album.artistID != artistID):</t>
   </si>
   <si>
@@ -505,12 +586,12 @@
     <t>if ((me.userID != data.userID) and (me.userRole != "Administrator")):</t>
   </si>
   <si>
+    <t>if ((data.userID != me.userID) and (me.userRole != "Administrator")):</t>
+  </si>
+  <si>
     <t>if not PlayHistory:</t>
   </si>
   <si>
-    <t>if ((favorite.userID != me.userID) and (me.userRole != "Administrator")):</t>
-  </si>
-  <si>
     <t>if not image:</t>
   </si>
   <si>
@@ -581,6 +662,24 @@
   </si>
   <si>
     <t>Only an administrator can delete another user's favorites</t>
+  </si>
+  <si>
+    <t>Artist not found (artistID={data.artistID})</t>
+  </si>
+  <si>
+    <t>Suggested Artist entry not found (suggestedArtistID={suggestedArtistID})</t>
+  </si>
+  <si>
+    <t>Only an administrator can delete an Artist from another user's Suggested Artists</t>
+  </si>
+  <si>
+    <t>Album not found (albumID={data.albumID})</t>
+  </si>
+  <si>
+    <t>Suggested Album entry not found (suggestedAlbumID={suggestedAlbumID})</t>
+  </si>
+  <si>
+    <t>Only an administrator can delete an Album from another user's Suggested Albums</t>
   </si>
   <si>
     <t>User not found</t>
@@ -667,8 +766,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -713,37 +812,29 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G102" totalsRowShown="0">
-  <autoFilter ref="A1:G102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G116" totalsRowShown="0">
+  <autoFilter ref="A1:G116"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Method"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endpoint"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Summary"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="condition"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Error"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Detail"/>
+    <tableColumn id="1" name="Method"/>
+    <tableColumn id="2" name="Endpoint"/>
+    <tableColumn id="3" name="Summary"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="condition"/>
+    <tableColumn id="6" name="Error"/>
+    <tableColumn id="7" name="Detail"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -781,7 +872,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -815,7 +906,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -850,10 +940,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1026,48 +1115,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="109.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1075,22 +1162,22 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1098,22 +1185,22 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1121,22 +1208,22 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1144,22 +1231,22 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1167,16 +1254,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1184,22 +1271,22 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1207,13 +1294,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1221,13 +1308,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1235,13 +1322,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1249,22 +1336,22 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1272,22 +1359,22 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1295,13 +1382,13 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1309,22 +1396,22 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1332,13 +1419,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1346,13 +1433,13 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1360,22 +1447,22 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1383,22 +1470,22 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1406,22 +1493,22 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="G19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1429,22 +1516,22 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1452,22 +1539,22 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1475,22 +1562,22 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1498,22 +1585,22 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1521,22 +1608,22 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1544,22 +1631,22 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1567,22 +1654,22 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1590,22 +1677,22 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1613,22 +1700,22 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1636,22 +1723,22 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1659,22 +1746,22 @@
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1682,22 +1769,22 @@
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="F31" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1705,22 +1792,22 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="F32" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1728,13 +1815,13 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1742,13 +1829,13 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1756,22 +1843,22 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="F35" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1779,22 +1866,22 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="F36" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="G36" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1802,22 +1889,22 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="F37" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G37" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1825,13 +1912,13 @@
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1839,13 +1926,13 @@
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1853,22 +1940,22 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="F40" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1876,22 +1963,22 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="F41" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="G41" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1899,22 +1986,22 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1922,36 +2009,45 @@
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="F43" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" t="s">
+        <v>197</v>
+      </c>
+      <c r="G44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1959,460 +2055,451 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45" t="s">
-        <v>168</v>
-      </c>
-      <c r="G45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
-      </c>
-      <c r="E46" t="s">
-        <v>154</v>
-      </c>
-      <c r="F46" t="s">
-        <v>168</v>
-      </c>
-      <c r="G46" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E47" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="G47" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="F48" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="G49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="E50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" t="s">
+        <v>197</v>
+      </c>
+      <c r="G50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" t="s">
-        <v>156</v>
-      </c>
-      <c r="F51" t="s">
-        <v>168</v>
-      </c>
-      <c r="G51" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" t="s">
-        <v>156</v>
-      </c>
-      <c r="F52" t="s">
-        <v>168</v>
-      </c>
-      <c r="G52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="F53" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G53" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="F54" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="G54" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E55" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="F55" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="G55" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="F57" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G57" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="E58" t="s">
+        <v>185</v>
+      </c>
+      <c r="F58" t="s">
+        <v>197</v>
+      </c>
+      <c r="G58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
         <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="F59" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="G59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" t="s">
+        <v>197</v>
+      </c>
+      <c r="G60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61" t="s">
+        <v>199</v>
+      </c>
+      <c r="G61" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
         <v>37</v>
       </c>
-      <c r="C60" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" t="s">
-        <v>159</v>
-      </c>
-      <c r="F60" t="s">
-        <v>167</v>
-      </c>
-      <c r="G60" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" t="s">
-        <v>160</v>
-      </c>
-      <c r="F61" t="s">
-        <v>170</v>
-      </c>
-      <c r="G61" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
         <v>38</v>
       </c>
-      <c r="C62" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" t="s">
+        <v>178</v>
+      </c>
+      <c r="F63" t="s">
+        <v>197</v>
+      </c>
+      <c r="G63" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
         <v>39</v>
       </c>
-      <c r="C63" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
-        <v>40</v>
-      </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="F64" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G64" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="F65" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="G65" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E66" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="F66" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="G66" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -2420,695 +2507,686 @@
         <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D67" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E67" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="F67" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G67" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" t="s">
+        <v>181</v>
+      </c>
+      <c r="F70" t="s">
+        <v>197</v>
+      </c>
+      <c r="G70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" t="s">
+        <v>156</v>
+      </c>
+      <c r="E73" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" t="s">
+        <v>197</v>
+      </c>
+      <c r="G73" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" t="s">
+        <v>188</v>
+      </c>
+      <c r="F74" t="s">
+        <v>196</v>
+      </c>
+      <c r="G74" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" t="s">
+        <v>189</v>
+      </c>
+      <c r="F75" t="s">
+        <v>199</v>
+      </c>
+      <c r="G75" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" t="s">
+        <v>157</v>
+      </c>
+      <c r="E78" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" t="s">
+        <v>197</v>
+      </c>
+      <c r="G78" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" t="s">
+        <v>196</v>
+      </c>
+      <c r="G79" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" t="s">
+        <v>171</v>
+      </c>
+      <c r="F80" t="s">
+        <v>199</v>
+      </c>
+      <c r="G80" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" t="s">
+        <v>157</v>
+      </c>
+      <c r="E81" t="s">
+        <v>169</v>
+      </c>
+      <c r="F81" t="s">
+        <v>197</v>
+      </c>
+      <c r="G81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
         <v>3</v>
       </c>
-      <c r="B68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" t="s">
-        <v>132</v>
-      </c>
-      <c r="E68" t="s">
-        <v>144</v>
-      </c>
-      <c r="F68" t="s">
-        <v>168</v>
-      </c>
-      <c r="G68" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" t="s">
+        <v>169</v>
+      </c>
+      <c r="F82" t="s">
+        <v>197</v>
+      </c>
+      <c r="G82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
         <v>3</v>
       </c>
-      <c r="B69" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" t="s">
-        <v>146</v>
-      </c>
-      <c r="F69" t="s">
-        <v>170</v>
-      </c>
-      <c r="G69" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" t="s">
-        <v>132</v>
-      </c>
-      <c r="E70" t="s">
-        <v>144</v>
-      </c>
-      <c r="F70" t="s">
-        <v>168</v>
-      </c>
-      <c r="G70" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" t="s">
-        <v>104</v>
-      </c>
-      <c r="D71" t="s">
-        <v>132</v>
-      </c>
-      <c r="E71" t="s">
-        <v>147</v>
-      </c>
-      <c r="F71" t="s">
-        <v>168</v>
-      </c>
-      <c r="G71" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" t="s">
-        <v>146</v>
-      </c>
-      <c r="F72" t="s">
-        <v>170</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" t="s">
+        <v>157</v>
+      </c>
+      <c r="E83" t="s">
+        <v>190</v>
+      </c>
+      <c r="F83" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" t="s">
-        <v>132</v>
-      </c>
-      <c r="E73" t="s">
-        <v>144</v>
-      </c>
-      <c r="F73" t="s">
-        <v>168</v>
-      </c>
-      <c r="G73" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" t="s">
-        <v>132</v>
-      </c>
-      <c r="E74" t="s">
-        <v>144</v>
-      </c>
-      <c r="F74" t="s">
-        <v>168</v>
-      </c>
-      <c r="G74" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75" t="s">
-        <v>146</v>
-      </c>
-      <c r="F75" t="s">
-        <v>170</v>
-      </c>
-      <c r="G75" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" t="s">
-        <v>41</v>
-      </c>
-      <c r="C76" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" t="s">
-        <v>132</v>
-      </c>
-      <c r="E76" t="s">
-        <v>148</v>
-      </c>
-      <c r="F76" t="s">
-        <v>168</v>
-      </c>
-      <c r="G76" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C77" t="s">
-        <v>105</v>
-      </c>
-      <c r="D77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E77" t="s">
-        <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>168</v>
-      </c>
-      <c r="G77" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" t="s">
-        <v>42</v>
-      </c>
-      <c r="C78" t="s">
-        <v>105</v>
-      </c>
-      <c r="D78" t="s">
-        <v>133</v>
-      </c>
-      <c r="E78" t="s">
-        <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>168</v>
-      </c>
-      <c r="G78" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" t="s">
-        <v>133</v>
-      </c>
-      <c r="E79" t="s">
-        <v>160</v>
-      </c>
-      <c r="F79" t="s">
-        <v>170</v>
-      </c>
-      <c r="G79" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" t="s">
-        <v>106</v>
-      </c>
-      <c r="D80" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" t="s">
-        <v>133</v>
-      </c>
-      <c r="E82" t="s">
-        <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>168</v>
-      </c>
-      <c r="G82" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" t="s">
-        <v>109</v>
-      </c>
-      <c r="D83" t="s">
-        <v>134</v>
-      </c>
-      <c r="E83" t="s">
-        <v>147</v>
-      </c>
-      <c r="F83" t="s">
-        <v>168</v>
-      </c>
       <c r="G83" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G84" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E85" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="G85" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="E86" t="s">
+        <v>171</v>
+      </c>
+      <c r="F86" t="s">
+        <v>199</v>
+      </c>
+      <c r="G86" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="E87" t="s">
+        <v>169</v>
+      </c>
+      <c r="F87" t="s">
+        <v>197</v>
+      </c>
+      <c r="G87" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D88" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E88" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G88" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E89" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="G89" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E90" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="G90" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D91" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
+        <v>197</v>
+      </c>
+      <c r="G91" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D92" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="E92" t="s">
+        <v>184</v>
+      </c>
+      <c r="F92" t="s">
+        <v>197</v>
+      </c>
+      <c r="G92" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="s">
         <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D93" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="F93" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="G93" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="s">
         <v>53</v>
       </c>
       <c r="C94" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D94" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" t="s">
-        <v>164</v>
-      </c>
-      <c r="F94" t="s">
-        <v>167</v>
-      </c>
-      <c r="G94" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D95" t="s">
-        <v>136</v>
-      </c>
-      <c r="E95" t="s">
-        <v>165</v>
-      </c>
-      <c r="F95" t="s">
-        <v>167</v>
-      </c>
-      <c r="G95" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C96" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D96" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E96" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="F96" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G96" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C97" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D97" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E97" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F97" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="G97" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D98" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="G98" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="s">
         <v>56</v>
       </c>
       <c r="C99" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D99" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="E99" t="s">
+        <v>189</v>
+      </c>
+      <c r="F99" t="s">
+        <v>199</v>
+      </c>
+      <c r="G99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -3116,38 +3194,315 @@
         <v>57</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D100" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101" t="s">
         <v>58</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D101" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" t="s">
         <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D102" t="s">
+        <v>159</v>
+      </c>
+      <c r="E102" t="s">
+        <v>176</v>
+      </c>
+      <c r="F102" t="s">
+        <v>197</v>
+      </c>
+      <c r="G102" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" t="s">
         <v>136</v>
+      </c>
+      <c r="D103" t="s">
+        <v>159</v>
+      </c>
+      <c r="E103" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" t="s">
+        <v>197</v>
+      </c>
+      <c r="G103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" t="s">
+        <v>136</v>
+      </c>
+      <c r="D104" t="s">
+        <v>159</v>
+      </c>
+      <c r="E104" t="s">
+        <v>190</v>
+      </c>
+      <c r="F104" t="s">
+        <v>199</v>
+      </c>
+      <c r="G104" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" t="s">
+        <v>137</v>
+      </c>
+      <c r="D105" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" t="s">
+        <v>137</v>
+      </c>
+      <c r="D106" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" t="s">
+        <v>192</v>
+      </c>
+      <c r="F107" t="s">
+        <v>197</v>
+      </c>
+      <c r="G107" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" t="s">
+        <v>139</v>
+      </c>
+      <c r="D108" t="s">
+        <v>161</v>
+      </c>
+      <c r="E108" t="s">
+        <v>193</v>
+      </c>
+      <c r="F108" t="s">
+        <v>196</v>
+      </c>
+      <c r="G108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" t="s">
+        <v>161</v>
+      </c>
+      <c r="E109" t="s">
+        <v>194</v>
+      </c>
+      <c r="F109" t="s">
+        <v>196</v>
+      </c>
+      <c r="G109" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110" t="s">
+        <v>140</v>
+      </c>
+      <c r="D110" t="s">
+        <v>161</v>
+      </c>
+      <c r="E110" t="s">
+        <v>164</v>
+      </c>
+      <c r="F110" t="s">
+        <v>197</v>
+      </c>
+      <c r="G110" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>64</v>
+      </c>
+      <c r="C111" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111" t="s">
+        <v>161</v>
+      </c>
+      <c r="E111" t="s">
+        <v>195</v>
+      </c>
+      <c r="F111" t="s">
+        <v>196</v>
+      </c>
+      <c r="G111" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" t="s">
+        <v>141</v>
+      </c>
+      <c r="D112" t="s">
+        <v>161</v>
+      </c>
+      <c r="E112" t="s">
+        <v>164</v>
+      </c>
+      <c r="F112" t="s">
+        <v>198</v>
+      </c>
+      <c r="G112" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>66</v>
+      </c>
+      <c r="C113" t="s">
+        <v>142</v>
+      </c>
+      <c r="D113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>67</v>
+      </c>
+      <c r="C114" t="s">
+        <v>143</v>
+      </c>
+      <c r="D114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
